--- a/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
@@ -539,7 +539,7 @@
         <is>
           <t>list(au_id = c("https://openalex.org/A5067828548", "https://openalex.org/A5078539679", "https://openalex.org/A5083645369", "https://openalex.org/A5072081031", "https://openalex.org/A5043275986", "https://openalex.org/A5055005087", "https://openalex.org/A5059482096", "https://openalex.org/A5050577562", "https://openalex.org/A5076222849", "https://openalex.org/A5074937622", "https://openalex.org/A5079707625", "https://openalex.org/A5007836088", "https://openalex.org/A5000844156", "https://openalex.org/A5003620021", 
 "https://openalex.org/A5086828665", "https://openalex.org/A5030931393", "https://openalex.org/A5024278402", "https://openalex.org/A5000322274", "https://openalex.org/A5081369231", "https://openalex.org/A5071496674", "https://openalex.org/A5049648116", "https://openalex.org/A5038057746", "https://openalex.org/A5087463011", "https://openalex.org/A5011628126", "https://openalex.org/A5080359871", "https://openalex.org/A5025586237", "https://openalex.org/A5020449038", "https://openalex.org/A5086729944", 
-"https://openalex.org/A5020936555"), au_display_name = c("Sonali Kumar", "David Molony", "Sameer Khawaja", "Kaylyn Crawford", "Elizabeth Thompson", "Olivia Y. Hung", "Imran Shah", "Jessica Navas-Simbana", "Arlen Ho", "Arnav Kumar", "Yi‐An Ko", "Hossein Hosseini", "Adrien Lefieux", "Joo Myung Lee", "Joo‐Yong Hahn", "Shao‐Liang Chen", "Hiromasa Otake", "Takashi Akasaka", "Eun‐Seok Shin", "Bon‐Kwon Koo", "Goran Stanković", "Dejan Milašinović", "Chang–Wook Nam", "Ki‐Bum Won", "Javier Escaned", 
+"https://openalex.org/A5020936555"), au_display_name = c("Sonali Kumar", "David Molony", "Sameer Khawaja", "Kaylyn Crawford", "Elizabeth Thompson", "Olivia Y. Hung", "Imran Shah", "Jessica Navas-Simbana", "Arlen Ho", "Arnav Kumar", "Yi‐An Ko", "Hossein Hosseini", "Adrien Lefieux", "Joo Myung Lee", "Joo‐Yong Hahn", "Shao‐Liang Chen", "Hiromasa Otake", "Takashi Akasaka", "Eun‐Seok Shin", "Bon‐Kwon Koo", "Goran Stanković", "Dejan Milašinović", "Chang‐Wook Nam", "Ki‐Bum Won", "Javier Escaned", 
 "Andrejs Ērglis", "Yoshinobu Murasato", "Alessandro Veneziani", "Habib Samady"), au_orcid = c(NA, "https://orcid.org/0000-0002-1068-881X", "https://orcid.org/0000-0002-7815-9105", NA, "https://orcid.org/0000-0002-1094-8861", "https://orcid.org/0000-0001-5668-2483", "https://orcid.org/0000-0002-1833-4098", NA, NA, "https://orcid.org/0000-0002-1664-7875", "https://orcid.org/0000-0002-6543-9765", "https://orcid.org/0000-0003-2696-621X", NA, "https://orcid.org/0000-0002-2178-4014", "https://orcid.org/0000-0002-7841-8349", 
 "https://orcid.org/0000-0003-3094-1680", "https://orcid.org/0000-0001-9953-0551", "https://orcid.org/0000-0003-3020-9369", "https://orcid.org/0000-0002-9169-6968", NA, "https://orcid.org/0000-0002-9414-0885", "https://orcid.org/0000-0002-1528-5147", NA, "https://orcid.org/0000-0001-5502-9933", "https://orcid.org/0000-0003-4932-0112", "https://orcid.org/0000-0002-3999-0182", "https://orcid.org/0000-0003-4825-5347", "https://orcid.org/0000-0001-8916-1190", NA), author_position = c("first", "middle", 
 "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", 

--- a/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,19 +360,19 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
@@ -385,179 +385,76 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Sonali Kumar, David Molony, Sameer Khawaja, Kaylyn Crawford, Elizabeth Thompson, Olivia Y. Hung, Imran Shah, Jessica Navas-Simbana, Arlen Ho, Arnav Kumar, Yi‐An Ko, Hossein Hosseini, Adrien Lefieux, Joo Myung Lee, Joo‐Yong Hahn, Shao‐Liang Chen, Hiromasa Otake, Takashi Akasaka, Eun‐Seok Shin, Bon‐Kwon Koo, Goran Stanković, Dejan Milašinović, Chang‐Wook Nam, Ki‐Bum Won, Javier Escaned, Andrejs Ērglis, Yoshinobu Murasato, Alessandro Veneziani, Habib Samady</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367394429</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Stent underexpansion is associated with high wall shear stress: a biomechanical analysis of the shear stent study</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5067828548", "https://openalex.org/A5078539679", "https://openalex.org/A5083645369", "https://openalex.org/A5072081031", "https://openalex.org/A5043275986", "https://openalex.org/A5055005087", "https://openalex.org/A5059482096", "https://openalex.org/A5050577562", "https://openalex.org/A5076222849", "https://openalex.org/A5074937622", "https://openalex.org/A5079707625", "https://openalex.org/A5007836088", "https://openalex.org/A5000844156", "https://openalex.org/A5003620021", 
-"https://openalex.org/A5086828665", "https://openalex.org/A5030931393", "https://openalex.org/A5024278402", "https://openalex.org/A5000322274", "https://openalex.org/A5081369231", "https://openalex.org/A5071496674", "https://openalex.org/A5049648116", "https://openalex.org/A5038057746", "https://openalex.org/A5087463011", "https://openalex.org/A5011628126", "https://openalex.org/A5080359871", "https://openalex.org/A5025586237", "https://openalex.org/A5020449038", "https://openalex.org/A5086729944", 
-"https://openalex.org/A5020936555"), au_display_name = c("Sonali Kumar", "David Molony", "Sameer Khawaja", "Kaylyn Crawford", "Elizabeth Thompson", "Olivia Y. Hung", "Imran Shah", "Jessica Navas-Simbana", "Arlen Ho", "Arnav Kumar", "Yi‐An Ko", "Hossein Hosseini", "Adrien Lefieux", "Joo Myung Lee", "Joo‐Yong Hahn", "Shao‐Liang Chen", "Hiromasa Otake", "Takashi Akasaka", "Eun‐Seok Shin", "Bon‐Kwon Koo", "Goran Stanković", "Dejan Milašinović", "Chang‐Wook Nam", "Ki‐Bum Won", "Javier Escaned", 
-"Andrejs Ērglis", "Yoshinobu Murasato", "Alessandro Veneziani", "Habib Samady"), au_orcid = c(NA, "https://orcid.org/0000-0002-1068-881X", "https://orcid.org/0000-0002-7815-9105", NA, "https://orcid.org/0000-0002-1094-8861", "https://orcid.org/0000-0001-5668-2483", "https://orcid.org/0000-0002-1833-4098", NA, NA, "https://orcid.org/0000-0002-1664-7875", "https://orcid.org/0000-0002-6543-9765", "https://orcid.org/0000-0003-2696-621X", NA, "https://orcid.org/0000-0002-2178-4014", "https://orcid.org/0000-0002-7841-8349", 
-"https://orcid.org/0000-0003-3094-1680", "https://orcid.org/0000-0001-9953-0551", "https://orcid.org/0000-0003-3020-9369", "https://orcid.org/0000-0002-9169-6968", NA, "https://orcid.org/0000-0002-9414-0885", "https://orcid.org/0000-0002-1528-5147", NA, "https://orcid.org/0000-0001-5502-9933", "https://orcid.org/0000-0003-4932-0112", "https://orcid.org/0000-0002-3999-0182", "https://orcid.org/0000-0003-4825-5347", "https://orcid.org/0000-0001-8916-1190", NA), author_position = c("first", "middle", 
-"middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", 
-"Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Department of Mathematics and Computer Science, Emory University, Atlanta, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", 
-"Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA", "Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA", "Division of Cardiology, Department of Internal Medicine, Heart Vascular Stroke Institute, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea", 
-"Division of Cardiology, Department of Internal Medicine, Heart Vascular Stroke Institute, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea", "Nanjing First Hospital, Nanjing Medical University, Nanjing, China", "Division of Cardiovascular Medicine, Department of Internal Medicine, Kobe University Graduate School of Medicine, Kobe, Japan", "Department of Cardiovascular Medicine, Wakayama Medical University, Wakayama, Japan", "Department of Cardiology, Ulsan Medical Center, Ulsan, Republic of Korea", 
-"Department of Internal Medicine and Cardiovascular Center, Seoul National University Hospital, Seoul, Republic of Korea", "Department of Cardiology, University Clinical Center of Serbia, Belgrade, Serbia", "Department of Cardiology, University Clinical Center of Serbia, Belgrade, Serbia", "Department of Medicine, Dongsan Medical Center, Keimyung University, Daegu, Republic of Korea", "Department of Cardiology, Ulsan Medical Center, Ulsan, Republic of Korea", "Department of Cardiology, Hospital Clínico San Carlos Madrid, Madrid, Spain", 
-"Pauls Stradins Clinical University Hospital, University of Latvia, Riga, Latvia", "Department of Cardiology and Clinical Research Center, National Hospital Organization Kyushu Medical Center, Fukuoka, Japan", "Department of Mathematics and Computer Science, Emory University, Atlanta, USA", "Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA"), institution_id = c("https://openalex.org/I150468666", "https://openalex.org/I4210117648", "https://openalex.org/I150468666", "https://openalex.org/I4210117648", 
-"https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I4210117648", "https://openalex.org/I2802194831", "https://openalex.org/I2802194831", "https://openalex.org/I83519826", "https://openalex.org/I65837984", "https://openalex.org/I190805021", NA, "https://openalex.org/I2802835388", 
-NA, NA, "https://openalex.org/I4210128080", NA, "https://openalex.org/I2961216182", "https://openalex.org/I4210099352", "https://openalex.org/I3018397740", "https://openalex.org/I150468666", "https://openalex.org/I4210117648"), institution_display_name = c("Emory University", "Northeast Georgia Medical Center", "Emory University", "Northeast Georgia Medical Center", "Emory University", "Emory University", "Emory University", "Emory University", "Emory University", "Emory University", "Emory University", 
-"Emory University", "Northeast Georgia Medical Center", "Samsung Medical Center", "Samsung Medical Center", "Nanjing Medical University", "Kobe University", "Wakayama Medical University", NA, "Seoul National University Hospital", NA, NA, "Keimyung University Dongsan Medical Center", NA, "Hospital Clínico San Carlos", "Pauls Stradiņš Clinical University Hospital", "National Kyushu Medical Center", "Emory University", "Northeast Georgia Medical Center"), institution_ror = c("https://ror.org/03czfpz43", 
-"https://ror.org/02pd4fk17", "https://ror.org/03czfpz43", "https://ror.org/02pd4fk17", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/03czfpz43", "https://ror.org/02pd4fk17", "https://ror.org/05a15z872", "https://ror.org/05a15z872", "https://ror.org/059gcgy73", "https://ror.org/03tgsfw79", "https://ror.org/005qv5373", NA, "https://ror.org/01z4nnt86", 
-NA, NA, "https://ror.org/035r7hb75", NA, "https://ror.org/04d0ybj29", "https://ror.org/00h1aq868", "https://ror.org/022296476", "https://ror.org/03czfpz43", "https://ror.org/02pd4fk17"), institution_country_code = c("US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "US", "KR", "KR", "CN", "JP", "JP", NA, "KR", NA, NA, "KR", NA, "ES", "LV", "JP", "US", "US"), institution_type = c("education", "healthcare", "education", "healthcare", "education", "education", "education", "education", 
-"education", "education", "education", "education", "healthcare", "healthcare", "healthcare", "education", "education", "education", NA, "healthcare", NA, NA, "healthcare", NA, "healthcare", "healthcare", "healthcare", "education", "healthcare"), institution_lineage = c("https://openalex.org/I150468666", "https://openalex.org/I4210117648", "https://openalex.org/I150468666", "https://openalex.org/I4210117648", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", 
-"https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I150468666", "https://openalex.org/I4210117648", "https://openalex.org/I2802194831", "https://openalex.org/I2802194831", "https://openalex.org/I83519826", "https://openalex.org/I65837984", "https://openalex.org/I190805021", NA, "https://openalex.org/I2802835388", NA, NA, "https://openalex.org/I4210128080", NA, "https://openalex.org/I2961216182, https://openalex.org/I4210139293", 
-"https://openalex.org/I4210099352", "https://openalex.org/I3018397740, https://openalex.org/I4210137409", "https://openalex.org/I150468666", "https://openalex.org/I4210117648"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>2023-04-29</t>
@@ -570,143 +467,57 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S43043541</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>https://doi.org/10.1007/s10554-023-02838-6</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>1569-5794</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37119348</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1007/s10554-023-02838-6</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>1375</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1382</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>c(funder = "https://openalex.org/F4320316508", funder_display_name = "Medtronic")</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4367394429</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4367394429", doi = "https://doi.org/10.1007/s10554-023-02838-6", pmid = "https://pubmed.ncbi.nlm.nih.gov/37119348")</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s10554-023-02838-6</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W196835504", "https://openalex.org/W1963722732", "https://openalex.org/W1965141994", "https://openalex.org/W1967885627", "https://openalex.org/W1975239679", "https://openalex.org/W1981386994", "https://openalex.org/W1992436181", "https://openalex.org/W2151965441", "https://openalex.org/W2174803828", "https://openalex.org/W2519372484", "https://openalex.org/W2767464748", "https://openalex.org/W2791893334", "https://openalex.org/W2809018165", "https://openalex.org/W2894907591", 
-"https://openalex.org/W2899610111", "https://openalex.org/W2981586345", "https://openalex.org/W2995961474", "https://openalex.org/W3012173918", "https://openalex.org/W3206484276")</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W4385383670", "https://openalex.org/W2022239614", "https://openalex.org/W191295512", "https://openalex.org/W1907863705", "https://openalex.org/W3022312723", "https://openalex.org/W4385974212", "https://openalex.org/W586678879", "https://openalex.org/W2155387881", "https://openalex.org/W2478820723", "https://openalex.org/W630410593")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sonali Kumar, David Molony, Sameer Khawaja, Kaylyn Crawford, Elizabeth Thompson, Olivia Y. Hung, Imran Shah, Jessica Navas-Simbana, Arlen Ho, Arnav Kumar, Yi‐An Ko, Hossein Hosseini, Adrien Lefieux, Joo Myung Lee, Joo‐Yong Hahn, Shao‐Liang Chen, Hiromasa Otake, Takashi Akasaka, Eun‐Seok Shin, Bon‐Kwon Koo, Goran Stanković, Dejan Milašinović, Chang‐Wook Nam, Ki‐Bum Won, Javier Escaned, Andrejs Ērglis, Yoshinobu Murasato, Alessandro Veneziani, Habib Samady</t>
+          <t>Sonali Kumar, David Molony, Sameer Khawaja, Kaylyn Crawford, Elizabeth Thompson, Olivia Y. Hung, Imran Shah, Jessica Navas-Simbana, Arlen Ho, Arnav Kumar, Yi‐An Ko, Hossein Hosseini, Adrien Lefieux, Joo Myung Lee, Joo‐Yong Hahn, Shao‐Liang Chen, Hiromasa Otake, Takashi Akasaka, Eun‐Seok Shin, Bon‐Kwon Koo, Goran Stanković, Dejan Milašinović, Chang–Wook Nam, Ki‐Bum Won, Javier Escaned, Andrejs Ērglis, Yoshinobu Murasato, Alessandro Veneziani, Habib Samady</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Olivia Hung_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Department of Mathematics and Computer Science, Emory University, Atlanta, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Division of Cardiology, Department of Medicine, Emory University School of Medicine, Atlanta, USA; Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA; Division of Cardiology, Department of Internal Medicine, Heart Vascular Stroke Institute, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea; Division of Cardiology, Department of Internal Medicine, Heart Vascular Stroke Institute, Samsung Medical Center, Sungkyunkwan University School of Medicine, Seoul, Republic of Korea; Nanjing First Hospital, Nanjing Medical University, Nanjing, China; Division of Cardiovascular Medicine, Department of Internal Medicine, Kobe University Graduate School of Medicine, Kobe, Japan; Department of Cardiovascular Medicine, Wakayama Medical University, Wakayama, Japan; Department of Cardiology, Ulsan Medical Center, Ulsan, Republic of Korea; Department of Internal Medicine and Cardiovascular Center, Seoul National University Hospital, Seoul, Republic of Korea; Department of Cardiology, University Clinical Center of Serbia, Belgrade, Serbia; Department of Cardiology, University Clinical Center of Serbia, Belgrade, Serbia; Department of Medicine, Dongsan Medical Center, Keimyung University, Daegu, Republic of Korea; Department of Cardiology, Ulsan Medical Center, Ulsan, Republic of Korea; Department of Cardiology, Hospital Clínico San Carlos Madrid, Madrid, Spain; Pauls Stradins Clinical University Hospital, University of Latvia, Riga, Latvia; Department of Cardiology and Clinical Research Center, National Hospital Organization Kyushu Medical Center, Fukuoka, Japan; Department of Mathematics and Computer Science, Emory University, Atlanta, USA; Georgia Heart Institute, Northeast Georgia Health System, Gainesville, USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4367394429</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Stent underexpansion is associated with high wall shear stress: a biomechanical analysis of the shear stent study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-04-29</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>The International Journal of Cardiovascular Imaging</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Springer Science+Business Media</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10554-023-02838-6</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37119348</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1007/s10554-023-02838-6</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
